--- a/data/testcase.xlsx
+++ b/data/testcase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,253 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>用例id</t>
+  </si>
+  <si>
+    <t>用例名</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
+    <t>请求方法</t>
+  </si>
+  <si>
+    <t>请求头</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>请求数据</t>
+  </si>
+  <si>
+    <t>上传的文件</t>
+  </si>
+  <si>
+    <t>初始化sql</t>
+  </si>
+  <si>
+    <t>被依赖保存全局变量</t>
+  </si>
+  <si>
+    <t>断言（多个断言用英文分号分割）</t>
+  </si>
+  <si>
+    <t>请求报文</t>
+  </si>
+  <si>
+    <t>返回报文</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>测试人员</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>case_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>init_sql</t>
+  </si>
+  <si>
+    <t>globalVariable</t>
+  </si>
+  <si>
+    <t>assertRes</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>actualResults</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>case_1</t>
+  </si>
+  <si>
+    <t>test_user_login_ok</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>http://${ip}/login2</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"content-type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"username": "qzcsbj", "password": "123456"}</t>
+  </si>
+  <si>
+    <t>token=$..token;</t>
+  </si>
+  <si>
+    <t>$..code=9420;</t>
+  </si>
+  <si>
+    <t>case_4</t>
+  </si>
+  <si>
+    <t>test_user_add_ok</t>
+  </si>
+  <si>
+    <t>添加成功</t>
+  </si>
+  <si>
+    <t>http://${ip}/add_user3</t>
+  </si>
+  <si>
+    <t>{"token":"${token}"}</t>
+  </si>
+  <si>
+    <t>{"adduser":"qzcsbj","data":{"username":"test133","realname":"test133","sex":"1","phone":"13800000133"}}</t>
+  </si>
+  <si>
+    <t>delete from users where username = 'test133';</t>
+  </si>
+  <si>
+    <t>username=$..username;</t>
+  </si>
+  <si>
+    <t>$..code=9550;</t>
+  </si>
+  <si>
+    <t>case_7</t>
+  </si>
+  <si>
+    <t>test_user_del_ok</t>
+  </si>
+  <si>
+    <t>删除成功</t>
+  </si>
+  <si>
+    <t>http://${ip}/del_user</t>
+  </si>
+  <si>
+    <t>{"adduser":"qzcsbj", "token":"${token}", "username":"${username}"}</t>
+  </si>
+  <si>
+    <t>$..code=9600;$..msg=删除成功</t>
+  </si>
+  <si>
+    <t>case_10</t>
+  </si>
+  <si>
+    <t>test_user_query_ok</t>
+  </si>
+  <si>
+    <t>查询用户</t>
+  </si>
+  <si>
+    <t>http://${ip}/api/v1/user/queryById</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"userId": "666"}</t>
+  </si>
+  <si>
+    <t>$..code=0;</t>
+  </si>
+  <si>
+    <t>赖韵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖韵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖韵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖韵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +283,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +584,285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>